--- a/results/recording.xlsx
+++ b/results/recording.xlsx
@@ -66,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,16 +82,39 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -99,18 +122,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,126 +617,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82446C64-EAA4-4EE4-8610-9A4351779308}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.82</v>
-      </c>
-      <c r="C3">
-        <v>0.45</v>
-      </c>
-      <c r="D3">
-        <v>0.65</v>
-      </c>
-      <c r="E3">
+      <c r="C5" s="3">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.9</v>
       </c>
-      <c r="F3">
+      <c r="G5" s="3">
         <v>0.63500000000000001</v>
       </c>
-      <c r="G3">
+      <c r="H5" s="4">
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0.05</v>
-      </c>
-      <c r="C4">
-        <v>0.09</v>
-      </c>
-      <c r="E4">
+      <c r="C6" s="3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F6" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F4">
+      <c r="G6" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G4">
+      <c r="H6" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="C7" s="3">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="F7" s="2">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F5">
+      <c r="G7" s="3">
         <v>0.623</v>
       </c>
-      <c r="G5">
+      <c r="H7" s="4">
         <v>0.57699999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="C8" s="6">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F8" s="5">
         <v>0.90100000000000002</v>
       </c>
-      <c r="F6">
+      <c r="G8" s="6">
         <v>0.63600000000000001</v>
       </c>
-      <c r="G6">
+      <c r="H8" s="7">
         <v>0.57199999999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
